--- a/A14K/A14K_画面遷移フロー_d003.xlsx
+++ b/A14K/A14K_画面遷移フロー_d003.xlsx
@@ -1,37 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\A14K\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\117029\Documents\Git\myTest\A14K\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317B0840-C66E-42FC-8BD1-D871991DA949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41935EF-79D0-4B80-BB3E-66CE3C941F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="14" xr2:uid="{0C8EA035-9AE7-4591-ACFF-7DC9AB8C9079}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{0C8EA035-9AE7-4591-ACFF-7DC9AB8C9079}"/>
   </bookViews>
   <sheets>
     <sheet name="改定履歴" sheetId="5" r:id="rId1"/>
     <sheet name="目次" sheetId="6" r:id="rId2"/>
     <sheet name="画面一覧" sheetId="3" r:id="rId3"/>
     <sheet name="画面遷移フロー" sheetId="4" r:id="rId4"/>
-    <sheet name="内部変数" sheetId="7" r:id="rId5"/>
-    <sheet name="CAN送信" sheetId="9" r:id="rId6"/>
-    <sheet name="CAN受信" sheetId="8" r:id="rId7"/>
-    <sheet name="認証画面" sheetId="10" r:id="rId8"/>
-    <sheet name="ユーザーインフォメーション画面" sheetId="11" r:id="rId9"/>
-    <sheet name="メイン画面" sheetId="12" r:id="rId10"/>
-    <sheet name="メニュー画面" sheetId="21" r:id="rId11"/>
-    <sheet name="インフォメーション画面" sheetId="19" r:id="rId12"/>
-    <sheet name="エアコン画面" sheetId="13" r:id="rId13"/>
-    <sheet name="設定画面" sheetId="20" r:id="rId14"/>
-    <sheet name="オーディオ画面" sheetId="14" r:id="rId15"/>
-    <sheet name="オーディオ画面.AM" sheetId="15" r:id="rId16"/>
-    <sheet name="ユーザー管理画面.新規" sheetId="16" r:id="rId17"/>
-    <sheet name="設定画面.車両設定.ロック設定" sheetId="17" r:id="rId18"/>
-    <sheet name="電話応答画面" sheetId="18" r:id="rId19"/>
+    <sheet name="CAN送信" sheetId="9" r:id="rId5"/>
+    <sheet name="CAN受信" sheetId="8" r:id="rId6"/>
+    <sheet name="認証画面" sheetId="10" r:id="rId7"/>
+    <sheet name="ユーザーインフォメーション画面" sheetId="11" r:id="rId8"/>
+    <sheet name="メイン画面" sheetId="12" r:id="rId9"/>
+    <sheet name="メニュー画面" sheetId="21" r:id="rId10"/>
+    <sheet name="インフォメーション画面" sheetId="19" r:id="rId11"/>
+    <sheet name="エアコン画面" sheetId="13" r:id="rId12"/>
+    <sheet name="設定画面" sheetId="20" r:id="rId13"/>
+    <sheet name="オーディオ画面" sheetId="14" r:id="rId14"/>
+    <sheet name="オーディオ画面.AM" sheetId="15" r:id="rId15"/>
+    <sheet name="ユーザー管理画面.新規" sheetId="16" r:id="rId16"/>
+    <sheet name="設定画面.車両設定.ロック設定" sheetId="17" r:id="rId17"/>
+    <sheet name="電話応答画面" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">画面一覧!$A$1:$I$124</definedName>
@@ -652,7 +651,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="292">
   <si>
     <t>改定</t>
     <rPh sb="0" eb="2">
@@ -4364,73 +4363,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機種判別.小分類</t>
-    <rPh sb="0" eb="2">
-      <t>キシュ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンベツ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ショウブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機種判別.機種</t>
-    <rPh sb="0" eb="2">
-      <t>キシュ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンベツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>輝度.昼モード</t>
-    <rPh sb="0" eb="2">
-      <t>キド</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>輝度.夜モード</t>
-    <rPh sb="0" eb="2">
-      <t>キド</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>輝度.モード</t>
-    <rPh sb="0" eb="2">
-      <t>キド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディスプレイソフトバージョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面番号</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■機能/目的</t>
     <rPh sb="1" eb="3">
       <t>キノウ</t>
@@ -4841,12 +4773,20 @@
     <t>【Bluetooth設定】</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>MI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x########</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4983,7 +4923,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -5087,22 +5027,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5307,6 +5238,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5396,15 +5333,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30924,6 +30852,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25065</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>200527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>300789</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>230606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1007E0-417D-CF56-2221-A8EE19AED67B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323473" y="19987461"/>
+          <a:ext cx="275724" cy="270711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>310817</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>205541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>572169</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>195514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91827720-91EF-1FB8-94B8-36481BF37A97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609225" y="19992475"/>
+          <a:ext cx="261352" cy="230605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -32305,14 +32321,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="94.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="52.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -32326,7 +32342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="24.95" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -32340,7 +32356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -32348,7 +32364,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="24.95" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>201</v>
       </c>
@@ -32356,7 +32372,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="59" t="s">
         <v>203</v>
       </c>
@@ -32364,241 +32380,241 @@
       <c r="C5" s="61"/>
       <c r="D5" s="62"/>
     </row>
-    <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="24.95" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="24.95" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="24.95" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="24.95" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="24.95" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="24.95" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="24.95" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="24.95" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="24.95" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="24.95" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="24.95" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="24.95" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="24.95" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="24.95" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="24.95" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="24.95" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="24.95" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="24.95" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="24.95" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="24.95" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="24.95" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="24.95" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="24.95" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="24.95" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="24.95" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="24.95" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="24.95" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="24.95" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="24.95" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="24.95" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="24.95" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="24.95" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="24.95" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="24.95" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="24.95" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="24.95" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="24.95" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="24.95" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="24.95" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="24.95" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -32612,21 +32628,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1BE28B-D4DD-43D7-9F6F-D56E7B943947}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE77ACD-4DD1-4A96-A130-596FBCB9E546}">
   <dimension ref="B1"/>
   <sheetViews>
@@ -32634,11 +32635,159 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B1" s="98" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="68" t="s">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B135CBF9-EFBE-4F5D-AB6F-D06D2D9813A3}">
+  <dimension ref="B1:C74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="39.950000000000003" customHeight="1">
+      <c r="B17" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="39.950000000000003" customHeight="1">
+      <c r="B18" s="1" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="39.950000000000003" customHeight="1">
+      <c r="B19" s="1" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="39.950000000000003" customHeight="1">
+      <c r="B20" s="1" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="39.950000000000003" customHeight="1">
+      <c r="B21" s="1" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="39.950000000000003" customHeight="1">
+      <c r="B47" s="1" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="39.950000000000003" customHeight="1">
+      <c r="B48" s="1" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="39.950000000000003" customHeight="1">
+      <c r="B49" s="1" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -32649,144 +32798,182 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B135CBF9-EFBE-4F5D-AB6F-D06D2D9813A3}">
-  <dimension ref="B1:C74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50BD01F-D87D-401C-B371-D5743F72C192}">
+  <dimension ref="B1:C97"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="98" t="s">
-        <v>232</v>
+    <row r="1" spans="2:3">
+      <c r="B1" s="68" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" t="s">
-        <v>235</v>
+    <row r="12" spans="2:3">
+      <c r="B12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="e" vm="1">
+    <row r="13" spans="2:3" ht="39.950000000000003" customHeight="1">
+      <c r="B13" s="1" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="C17" t="s">
-        <v>251</v>
+      <c r="C13" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="e" vm="2">
+    <row r="14" spans="2:3" ht="39.950000000000003" customHeight="1">
+      <c r="B14" s="1" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="C18" t="s">
-        <v>252</v>
+      <c r="C14" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="e" vm="3">
+    <row r="15" spans="2:3" ht="39.950000000000003" customHeight="1">
+      <c r="B15" s="1" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="C19" t="s">
-        <v>253</v>
+      <c r="C15" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="e" vm="4">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="30" customHeight="1">
+      <c r="B24" s="1" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="C20" t="s">
-        <v>254</v>
+      <c r="C24" t="s">
+        <v>263</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="1" t="e" vm="5">
+    <row r="25" spans="2:3" ht="30" customHeight="1">
+      <c r="B25" s="1" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="1"/>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>265</v>
+      </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>250</v>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>266</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>249</v>
+    <row r="42" spans="2:3" ht="30" customHeight="1">
+      <c r="B42" s="1" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" t="s">
+        <v>267</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>255</v>
+    <row r="43" spans="2:3" ht="30" customHeight="1">
+      <c r="B43" s="1" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:3" ht="30" customHeight="1">
+      <c r="B44" s="1" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C44" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>256</v>
-      </c>
-      <c r="C46" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="1" t="e" vm="6">
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="30" customHeight="1">
+      <c r="B82" s="1" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="C47" t="s">
-        <v>258</v>
-      </c>
     </row>
-    <row r="48" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="e" vm="7">
+    <row r="83" spans="2:2" ht="30" customHeight="1">
+      <c r="B83" s="1" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="C48" t="s">
-        <v>259</v>
-      </c>
     </row>
-    <row r="49" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="e" vm="8">
+    <row r="84" spans="2:2" ht="30" customHeight="1">
+      <c r="B84" s="1" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="C49" t="s">
-        <v>260</v>
-      </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B51" t="s">
-        <v>257</v>
+    <row r="85" spans="2:2" ht="30" customHeight="1">
+      <c r="B85" s="1" t="e" vm="20">
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B59" t="s">
-        <v>261</v>
+    <row r="86" spans="2:2" ht="30" customHeight="1">
+      <c r="B86" s="1" t="e" vm="21">
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B66" t="s">
-        <v>262</v>
+    <row r="87" spans="2:2" ht="30" customHeight="1">
+      <c r="B87" s="1" t="e" vm="22">
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
-        <v>263</v>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="30" customHeight="1">
+      <c r="B96" s="1" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="30" customHeight="1">
+      <c r="B97" s="1" t="e" vm="24">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -32797,178 +32984,409 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50BD01F-D87D-401C-B371-D5743F72C192}">
-  <dimension ref="B1:C97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0CF58E-68C6-49CB-9A93-F61BD8208FE8}">
+  <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90:H91"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="98" t="s">
-        <v>38</v>
+    <row r="1" spans="2:8">
+      <c r="B1" s="68" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="4" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>
+    <row r="5" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>
+    <row r="6" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1"/>
+    <row r="7" spans="2:8" s="1" customFormat="1">
+      <c r="B7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B8" s="1" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="69"/>
+    </row>
+    <row r="9" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B9" s="1" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="69"/>
+    </row>
+    <row r="10" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B10" s="1" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="69"/>
+    </row>
+    <row r="11" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B11" s="1" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" s="69"/>
+    </row>
+    <row r="12" spans="2:8" s="1" customFormat="1">
+      <c r="H12" s="69"/>
+    </row>
+    <row r="13" spans="2:8" s="1" customFormat="1">
+      <c r="H13" s="69"/>
+    </row>
+    <row r="14" spans="2:8" s="1" customFormat="1">
+      <c r="H14" s="69"/>
+    </row>
+    <row r="15" spans="2:8" s="1" customFormat="1">
+      <c r="H15" s="69"/>
+    </row>
+    <row r="16" spans="2:8" s="1" customFormat="1">
+      <c r="H16" s="69"/>
+    </row>
+    <row r="17" spans="2:8" s="1" customFormat="1">
+      <c r="H17" s="69"/>
+    </row>
+    <row r="18" spans="2:8" s="1" customFormat="1">
+      <c r="H18" s="69"/>
+    </row>
+    <row r="19" spans="2:8" s="1" customFormat="1">
+      <c r="B19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" s="69"/>
+    </row>
+    <row r="20" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B20" s="1" t="e" vm="29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="69"/>
+    </row>
+    <row r="21" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B21" s="1" t="e" vm="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="69"/>
+    </row>
+    <row r="22" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B22" s="1" t="e" vm="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22" s="69" t="s">
         <v>235</v>
       </c>
+      <c r="H22" s="69"/>
     </row>
-    <row r="13" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="e" vm="9">
+    <row r="23" spans="2:8" ht="39.950000000000003" customHeight="1">
+      <c r="B23" s="1" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
+      <c r="C23" s="69" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1">
+      <c r="B24" s="1" t="e" vm="33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1">
+      <c r="B25" s="1" t="e" vm="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1">
+      <c r="B26" s="1" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="39.950000000000003" customHeight="1">
+      <c r="B27" s="1" t="e" vm="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="39.950000000000003" customHeight="1"/>
+    <row r="29" spans="2:8" ht="39.950000000000003" customHeight="1"/>
+    <row r="30" spans="2:8" ht="39.950000000000003" customHeight="1"/>
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
+        <v>276</v>
+      </c>
+      <c r="H31" s="69"/>
+    </row>
+    <row r="32" spans="2:8" ht="39.950000000000003" customHeight="1"/>
+    <row r="33" spans="2:2" ht="39.950000000000003" customHeight="1"/>
+    <row r="34" spans="2:2" ht="39.950000000000003" customHeight="1"/>
+    <row r="35" spans="2:2" ht="39.950000000000003" customHeight="1"/>
+    <row r="36" spans="2:2" ht="39.950000000000003" customHeight="1"/>
+    <row r="37" spans="2:2" ht="39.950000000000003" customHeight="1"/>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="39.950000000000003" customHeight="1">
+      <c r="B39" s="1" t="e" vm="37">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="39.950000000000003" customHeight="1">
+      <c r="B40" s="1" t="e" vm="38">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="39.950000000000003" customHeight="1">
+      <c r="B41" s="1" t="e" vm="39">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="39.950000000000003" customHeight="1">
+      <c r="B42" s="1" t="e" vm="40">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="39.950000000000003" customHeight="1">
+      <c r="B43" s="1" t="e" vm="41">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="39.950000000000003" customHeight="1"/>
+    <row r="47" spans="2:2" ht="39.950000000000003" customHeight="1"/>
+    <row r="48" spans="2:2" ht="39.950000000000003" customHeight="1"/>
+    <row r="49" ht="39.950000000000003" customHeight="1"/>
+    <row r="50" ht="39.950000000000003" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD898E6-5935-4573-B55E-7BAFDB0832C2}">
+  <dimension ref="B1:C78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="68" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="30" customHeight="1">
+      <c r="B11" s="1" t="e" vm="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="30" customHeight="1">
+      <c r="B12" s="1" t="e" vm="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="30" customHeight="1">
+      <c r="B13" s="1" t="e" vm="44">
+        <v>#VALUE!</v>
+      </c>
       <c r="C13" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="e" vm="10">
+    <row r="14" spans="2:3" ht="30" customHeight="1">
+      <c r="B14" s="1" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="e" vm="11">
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="30" customHeight="1">
+      <c r="B24" s="1" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
-      <c r="C15" t="s">
-        <v>268</v>
+      <c r="C24" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>269</v>
+    <row r="25" spans="2:3" ht="30" customHeight="1">
+      <c r="B25" s="1" t="e" vm="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C25" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="e" vm="12">
+    <row r="26" spans="2:3" ht="30" customHeight="1">
+      <c r="B26" s="1" t="e" vm="48">
         <v>#VALUE!</v>
       </c>
-      <c r="C24" t="s">
-        <v>270</v>
+      <c r="C26" t="s">
+        <v>286</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="1" t="e" vm="13">
+    <row r="27" spans="2:3" ht="30" customHeight="1">
+      <c r="B27" s="1" t="e" vm="49">
         <v>#VALUE!</v>
       </c>
-      <c r="C25" t="s">
-        <v>271</v>
+      <c r="C27" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>272</v>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
-        <v>273</v>
+    <row r="51" spans="2:3">
+      <c r="B51" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="e" vm="14">
+    <row r="52" spans="2:3" ht="30" customHeight="1">
+      <c r="B52" s="1" t="e" vm="50">
         <v>#VALUE!</v>
       </c>
-      <c r="C42" t="s">
-        <v>274</v>
-      </c>
     </row>
-    <row r="43" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="e" vm="15">
+    <row r="53" spans="2:3" ht="30" customHeight="1">
+      <c r="B53" s="1" t="e" vm="51">
         <v>#VALUE!</v>
       </c>
-      <c r="C43" t="s">
-        <v>275</v>
-      </c>
     </row>
-    <row r="44" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="1" t="e" vm="16">
+    <row r="54" spans="2:3" ht="30" customHeight="1">
+      <c r="B54" s="1" t="e" vm="52">
         <v>#VALUE!</v>
       </c>
-      <c r="C44" t="s">
-        <v>276</v>
-      </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B46" t="s">
-        <v>277</v>
+    <row r="55" spans="2:3" ht="30" customHeight="1">
+      <c r="B55" s="1" t="e" vm="53">
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
-        <v>278</v>
+    <row r="56" spans="2:3" ht="30" customHeight="1">
+      <c r="B56" s="1" t="e" vm="54">
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B61" t="s">
-        <v>279</v>
+    <row r="67" spans="2:2">
+      <c r="B67" s="34" t="s">
+        <v>289</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B69" t="s">
-        <v>280</v>
+    <row r="74" spans="2:2">
+      <c r="B74" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="1" t="e" vm="17">
+    <row r="75" spans="2:2">
+      <c r="B75" s="1" t="e" vm="55">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="1" t="e" vm="18">
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="e" vm="56">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="1" t="e" vm="19">
+    <row r="77" spans="2:2">
+      <c r="B77" s="1" t="e" vm="57">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="1" t="e" vm="20">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="1" t="e" vm="21">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="1" t="e" vm="22">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B89" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="1" t="e" vm="23">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="1" t="e" vm="24">
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="e" vm="58">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -32979,411 +33397,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0CF58E-68C6-49CB-9A93-F61BD8208FE8}">
-  <dimension ref="B1:H50"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20606A8D-E6C5-413B-A5FB-AC454EB94CE9}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B1" s="98" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="e" vm="25">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="H8" s="100"/>
-    </row>
-    <row r="9" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="e" vm="26">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>237</v>
-      </c>
-      <c r="H9" s="100"/>
-    </row>
-    <row r="10" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="e" vm="27">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>238</v>
-      </c>
-      <c r="H10" s="100"/>
-    </row>
-    <row r="11" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="e" vm="28">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="100" t="s">
-        <v>239</v>
-      </c>
-      <c r="H11" s="100"/>
-    </row>
-    <row r="12" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H12" s="100"/>
-    </row>
-    <row r="13" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H13" s="100"/>
-    </row>
-    <row r="14" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H14" s="100"/>
-    </row>
-    <row r="15" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H15" s="100"/>
-    </row>
-    <row r="16" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H16" s="100"/>
-    </row>
-    <row r="17" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H17" s="100"/>
-    </row>
-    <row r="18" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H18" s="100"/>
-    </row>
-    <row r="19" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H19" s="100"/>
-    </row>
-    <row r="20" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="e" vm="29">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="H20" s="100"/>
-    </row>
-    <row r="21" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="1" t="e" vm="30">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>240</v>
-      </c>
-      <c r="H21" s="100"/>
-    </row>
-    <row r="22" spans="2:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="1" t="e" vm="31">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="H22" s="100"/>
-    </row>
-    <row r="23" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="e" vm="32">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="e" vm="33">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C24" s="100" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="1" t="e" vm="34">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C25" s="100" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="1" t="e" vm="35">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C26" s="100" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="1" t="e" vm="36">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C27" s="100" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>283</v>
-      </c>
-      <c r="H31" s="100"/>
-    </row>
-    <row r="32" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="e" vm="37">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="e" vm="38">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="e" vm="39">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="e" vm="40">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="e" vm="41">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B45" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD898E6-5935-4573-B55E-7BAFDB0832C2}">
-  <dimension ref="B1:C78"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9427B9F5-698E-4746-881E-1DADFFBF372B}">
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="98" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="e" vm="42">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="e" vm="43">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="e" vm="44">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="e" vm="45">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="e" vm="46">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="1" t="e" vm="47">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C25" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="1" t="e" vm="48">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C26" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="1" t="e" vm="49">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C27" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C51" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="1" t="e" vm="50">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="1" t="e" vm="51">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="1" t="e" vm="52">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="1" t="e" vm="53">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="1" t="e" vm="54">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B67" s="34" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B74" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B75" s="1" t="e" vm="55">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B76" s="1" t="e" vm="56">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B77" s="1" t="e" vm="57">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B78" s="1" t="e" vm="58">
-        <v>#VALUE!</v>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -33393,35 +33434,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20606A8D-E6C5-413B-A5FB-AC454EB94CE9}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CCAFCA-4FC2-4324-B512-2C45F7ECB8C3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9427B9F5-698E-4746-881E-1DADFFBF372B}">
-  <dimension ref="B1"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33429,22 +33451,6 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CCAFCA-4FC2-4324-B512-2C45F7ECB8C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355E1B3E-31C9-4854-A033-707C1A6E9FC8}">
   <dimension ref="B1"/>
   <sheetViews>
@@ -33452,11 +33458,11 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B1" s="98" t="s">
-        <v>231</v>
+    <row r="1" spans="2:2">
+      <c r="B1" s="68" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -33474,34 +33480,34 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B1" s="98" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="68" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>216</v>
       </c>
@@ -33525,7 +33531,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="6.25" style="25" customWidth="1"/>
     <col min="2" max="2" width="11" style="18" bestFit="1" customWidth="1"/>
@@ -33540,35 +33546,35 @@
     <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="72" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="83"/>
+      <c r="J1" s="85"/>
     </row>
-    <row r="2" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="72"/>
+    <row r="2" spans="1:10" ht="79.5" customHeight="1">
+      <c r="A2" s="86"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
@@ -33581,14 +33587,14 @@
       <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="83"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="85"/>
     </row>
-    <row r="3" spans="1:10" s="34" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" s="34" customFormat="1" ht="243.75">
       <c r="A3" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="30">
@@ -33608,9 +33614,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="67" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" s="67" customFormat="1" ht="75">
       <c r="A4" s="25"/>
-      <c r="B4" s="75"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="63">
         <v>0</v>
       </c>
@@ -33628,9 +33634,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="67" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" s="67" customFormat="1" ht="75">
       <c r="A5" s="25"/>
-      <c r="B5" s="75"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="63">
         <v>0</v>
       </c>
@@ -33648,8 +33654,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.4">
-      <c r="B6" s="75"/>
+    <row r="6" spans="1:10" ht="75">
+      <c r="B6" s="77"/>
       <c r="C6" s="22">
         <v>1</v>
       </c>
@@ -33673,8 +33679,8 @@
       </c>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="75"/>
+    <row r="7" spans="1:10" ht="55.5" customHeight="1">
+      <c r="B7" s="77"/>
       <c r="C7" s="22">
         <v>1</v>
       </c>
@@ -33692,8 +33698,8 @@
       </c>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="75"/>
+    <row r="8" spans="1:10" ht="37.5">
+      <c r="B8" s="77"/>
       <c r="C8" s="22">
         <v>2</v>
       </c>
@@ -33717,8 +33723,8 @@
       </c>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="75"/>
+    <row r="9" spans="1:10" ht="56.25">
+      <c r="B9" s="77"/>
       <c r="C9" s="22">
         <v>2</v>
       </c>
@@ -33742,8 +33748,8 @@
       </c>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="75"/>
+    <row r="10" spans="1:10" ht="37.5">
+      <c r="B10" s="77"/>
       <c r="C10" s="22">
         <v>2</v>
       </c>
@@ -33759,8 +33765,8 @@
       <c r="I10" s="11"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="75"/>
+    <row r="11" spans="1:10" ht="93.75">
+      <c r="B11" s="77"/>
       <c r="C11" s="22">
         <v>3</v>
       </c>
@@ -33784,21 +33790,21 @@
       </c>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" s="34" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" s="34" customFormat="1" ht="56.25">
       <c r="A12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="75"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="35">
         <v>4</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="89"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="37" t="s">
         <v>21</v>
       </c>
@@ -33812,8 +33818,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="75"/>
+    <row r="13" spans="1:10">
+      <c r="B13" s="77"/>
       <c r="C13" s="22">
         <v>3</v>
       </c>
@@ -33836,8 +33842,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="168.75" x14ac:dyDescent="0.4">
-      <c r="B14" s="75"/>
+    <row r="14" spans="1:10" ht="168.75">
+      <c r="B14" s="77"/>
       <c r="C14" s="22">
         <v>3</v>
       </c>
@@ -33854,8 +33860,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="75"/>
+    <row r="15" spans="1:10">
+      <c r="B15" s="77"/>
       <c r="C15" s="22">
         <v>4</v>
       </c>
@@ -33878,8 +33884,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="75"/>
+    <row r="16" spans="1:10">
+      <c r="B16" s="77"/>
       <c r="C16" s="22">
         <v>4</v>
       </c>
@@ -33898,12 +33904,12 @@
       <c r="H16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="70">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="75"/>
+    <row r="17" spans="1:11">
+      <c r="B17" s="77"/>
       <c r="C17" s="22">
         <v>4</v>
       </c>
@@ -33922,10 +33928,10 @@
       <c r="H17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="68"/>
+      <c r="I17" s="70"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="75"/>
+    <row r="18" spans="1:11">
+      <c r="B18" s="77"/>
       <c r="C18" s="22">
         <v>4</v>
       </c>
@@ -33944,10 +33950,10 @@
       <c r="H18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="68"/>
+      <c r="I18" s="70"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="76"/>
+    <row r="19" spans="1:11">
+      <c r="B19" s="78"/>
       <c r="C19" s="22">
         <v>4</v>
       </c>
@@ -33973,9 +33979,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="168.75">
       <c r="A20" s="29"/>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="87" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="35">
@@ -34001,9 +34007,9 @@
       </c>
       <c r="J20" s="34"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11">
       <c r="A21" s="29"/>
-      <c r="B21" s="86"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="35">
         <v>3</v>
       </c>
@@ -34027,9 +34033,9 @@
       </c>
       <c r="J21" s="34"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11">
       <c r="A22" s="29"/>
-      <c r="B22" s="86"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="35">
         <v>3</v>
       </c>
@@ -34053,9 +34059,9 @@
       </c>
       <c r="J22" s="34"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11">
       <c r="A23" s="29"/>
-      <c r="B23" s="86"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="35">
         <v>3</v>
       </c>
@@ -34079,9 +34085,9 @@
       </c>
       <c r="J23" s="34"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11">
       <c r="A24" s="29"/>
-      <c r="B24" s="86"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="35">
         <v>3</v>
       </c>
@@ -34105,9 +34111,9 @@
       </c>
       <c r="J24" s="34"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11">
       <c r="A25" s="29"/>
-      <c r="B25" s="86"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="35">
         <v>3</v>
       </c>
@@ -34131,83 +34137,83 @@
       </c>
       <c r="J25" s="34"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11">
       <c r="A26" s="29"/>
-      <c r="B26" s="86"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="35">
         <v>3</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="97" t="s">
+      <c r="H26" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="69">
+      <c r="I26" s="71">
         <v>5</v>
       </c>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11">
       <c r="A27" s="29"/>
-      <c r="B27" s="86"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="35">
         <v>3</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="69"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="34"/>
     </row>
-    <row r="28" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="37.5">
       <c r="A28" s="29"/>
-      <c r="B28" s="86"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="35">
         <v>3</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="69"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="34"/>
     </row>
-    <row r="29" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="37.5">
       <c r="A29" s="29"/>
-      <c r="B29" s="86"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="35">
         <v>3</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="69"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="34"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11">
       <c r="A30" s="29"/>
-      <c r="B30" s="86"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="35">
         <v>3</v>
       </c>
@@ -34231,11 +34237,11 @@
       </c>
       <c r="J30" s="34"/>
     </row>
-    <row r="31" spans="1:11" s="34" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" s="34" customFormat="1" ht="262.5">
       <c r="A31" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="86"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="35">
         <v>3</v>
       </c>
@@ -34261,9 +34267,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" s="34" customFormat="1">
       <c r="A32" s="29"/>
-      <c r="B32" s="86"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="35">
         <v>3</v>
       </c>
@@ -34286,9 +34292,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" s="34" customFormat="1">
       <c r="A33" s="29"/>
-      <c r="B33" s="86"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="35">
         <v>3</v>
       </c>
@@ -34311,9 +34317,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" s="34" customFormat="1">
       <c r="A34" s="29"/>
-      <c r="B34" s="86"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="35">
         <v>3</v>
       </c>
@@ -34336,9 +34342,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" s="34" customFormat="1">
       <c r="A35" s="29"/>
-      <c r="B35" s="86"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="35">
         <v>3</v>
       </c>
@@ -34361,9 +34367,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" s="34" customFormat="1">
       <c r="A36" s="29"/>
-      <c r="B36" s="86"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="35">
         <v>3</v>
       </c>
@@ -34386,9 +34392,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" s="34" customFormat="1">
       <c r="A37" s="29"/>
-      <c r="B37" s="86"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="35">
         <v>3</v>
       </c>
@@ -34411,11 +34417,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" s="34" customFormat="1">
       <c r="A38" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="86"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="35">
         <v>3</v>
       </c>
@@ -34441,11 +34447,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" s="34" customFormat="1">
       <c r="A39" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="86"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="35">
         <v>3</v>
       </c>
@@ -34471,11 +34477,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="34" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" s="34" customFormat="1" ht="37.5">
       <c r="A40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="86"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="35">
         <v>3</v>
       </c>
@@ -34493,9 +34499,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" ht="56.25">
       <c r="A41" s="29"/>
-      <c r="B41" s="86"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="35">
         <v>4</v>
       </c>
@@ -34519,9 +34525,9 @@
       </c>
       <c r="J41" s="34"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10">
       <c r="A42" s="29"/>
-      <c r="B42" s="86"/>
+      <c r="B42" s="88"/>
       <c r="C42" s="35">
         <v>4</v>
       </c>
@@ -34537,151 +34543,151 @@
       </c>
       <c r="J42" s="34"/>
     </row>
-    <row r="43" spans="1:10" s="34" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" s="34" customFormat="1" ht="75">
       <c r="A43" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="86"/>
+      <c r="B43" s="88"/>
       <c r="C43" s="35">
         <v>5</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="71" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="69" t="s">
+      <c r="G43" s="71" t="s">
         <v>21</v>
       </c>
       <c r="H43" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="I43" s="69">
+      <c r="I43" s="71">
         <v>5</v>
       </c>
       <c r="J43" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="34" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" s="34" customFormat="1" ht="37.5">
       <c r="A44" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="86"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="35">
         <v>5</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="69"/>
+      <c r="E44" s="71"/>
       <c r="F44" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G44" s="69"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="I44" s="69"/>
+      <c r="I44" s="71"/>
       <c r="J44" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="34" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" s="34" customFormat="1" ht="56.25">
       <c r="A45" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="86"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="35">
         <v>5</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="69"/>
+      <c r="E45" s="71"/>
       <c r="F45" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="G45" s="69"/>
+      <c r="G45" s="71"/>
       <c r="H45" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="I45" s="69"/>
+      <c r="I45" s="71"/>
       <c r="J45" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="34" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" s="34" customFormat="1" ht="37.5">
       <c r="A46" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="86"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="35">
         <v>5</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="69"/>
+      <c r="E46" s="71"/>
       <c r="F46" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G46" s="69"/>
+      <c r="G46" s="71"/>
       <c r="H46" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="I46" s="69"/>
+      <c r="I46" s="71"/>
       <c r="J46" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" ht="93.75">
       <c r="A47" s="29"/>
-      <c r="B47" s="86"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="35">
         <v>5</v>
       </c>
       <c r="D47" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="69"/>
+      <c r="E47" s="71"/>
       <c r="F47" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="69"/>
+      <c r="G47" s="71"/>
       <c r="H47" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="I47" s="69"/>
+      <c r="I47" s="71"/>
       <c r="J47" s="34"/>
     </row>
-    <row r="48" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="37.5">
       <c r="A48" s="29"/>
-      <c r="B48" s="86"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="35">
         <v>5</v>
       </c>
       <c r="D48" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="69"/>
+      <c r="E48" s="71"/>
       <c r="F48" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="G48" s="69"/>
+      <c r="G48" s="71"/>
       <c r="H48" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="69"/>
+      <c r="I48" s="71"/>
       <c r="J48" s="34"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="29"/>
-      <c r="B49" s="86"/>
+      <c r="B49" s="88"/>
       <c r="C49" s="35">
         <v>4</v>
       </c>
@@ -34699,99 +34705,99 @@
       </c>
       <c r="J49" s="34"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="86"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="35">
         <v>5</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="69" t="s">
+      <c r="E50" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="73" t="s">
+      <c r="F50" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="G50" s="73" t="s">
+      <c r="G50" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="77" t="s">
+      <c r="H50" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="I50" s="69">
+      <c r="I50" s="71">
         <v>5</v>
       </c>
       <c r="J50" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12">
       <c r="A51" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="86"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="35">
         <v>5</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="69"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="69"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="71"/>
       <c r="J51" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12">
       <c r="A52" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="86"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="35">
         <v>5</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="69"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="69"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="71"/>
       <c r="J52" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" ht="37.5">
       <c r="A53" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="86"/>
+      <c r="B53" s="88"/>
       <c r="C53" s="35">
         <v>5</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="69"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="69"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="71"/>
       <c r="J53" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="29"/>
-      <c r="B54" s="86"/>
+      <c r="B54" s="88"/>
       <c r="C54" s="35">
         <v>4</v>
       </c>
@@ -34807,88 +34813,88 @@
       </c>
       <c r="J54" s="34"/>
     </row>
-    <row r="55" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" ht="37.5">
       <c r="A55" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="86"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="35">
         <v>5</v>
       </c>
       <c r="D55" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="69" t="s">
+      <c r="E55" s="71" t="s">
         <v>28</v>
       </c>
       <c r="F55" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="69" t="s">
+      <c r="G55" s="71" t="s">
         <v>21</v>
       </c>
       <c r="H55" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="I55" s="69">
+      <c r="I55" s="71">
         <v>5</v>
       </c>
       <c r="J55" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="75">
       <c r="A56" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="86"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="35">
         <v>5</v>
       </c>
       <c r="D56" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="69"/>
+      <c r="E56" s="71"/>
       <c r="F56" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="G56" s="69"/>
+      <c r="G56" s="71"/>
       <c r="H56" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="I56" s="69"/>
+      <c r="I56" s="71"/>
       <c r="J56" s="34" t="s">
         <v>78</v>
       </c>
       <c r="L56" s="17"/>
     </row>
-    <row r="57" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" ht="56.25">
       <c r="A57" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="86"/>
+      <c r="B57" s="88"/>
       <c r="C57" s="35">
         <v>5</v>
       </c>
       <c r="D57" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="69"/>
+      <c r="E57" s="71"/>
       <c r="F57" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="G57" s="69"/>
+      <c r="G57" s="71"/>
       <c r="H57" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="I57" s="69"/>
+      <c r="I57" s="71"/>
       <c r="J57" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="29"/>
-      <c r="B58" s="86"/>
+      <c r="B58" s="88"/>
       <c r="C58" s="35">
         <v>4</v>
       </c>
@@ -34906,121 +34912,121 @@
       </c>
       <c r="J58" s="34"/>
     </row>
-    <row r="59" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" ht="75">
       <c r="A59" s="29"/>
-      <c r="B59" s="86"/>
+      <c r="B59" s="88"/>
       <c r="C59" s="35">
         <v>5</v>
       </c>
       <c r="D59" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="69" t="s">
+      <c r="E59" s="71" t="s">
         <v>28</v>
       </c>
       <c r="F59" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G59" s="69" t="s">
+      <c r="G59" s="71" t="s">
         <v>21</v>
       </c>
       <c r="H59" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="I59" s="69">
+      <c r="I59" s="71">
         <v>5</v>
       </c>
       <c r="J59" s="34"/>
     </row>
-    <row r="60" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" ht="37.5" customHeight="1">
       <c r="A60" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="86"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="35">
         <v>5</v>
       </c>
       <c r="D60" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="69"/>
-      <c r="F60" s="73" t="s">
+      <c r="E60" s="71"/>
+      <c r="F60" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="G60" s="69"/>
-      <c r="H60" s="77" t="s">
+      <c r="G60" s="71"/>
+      <c r="H60" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="I60" s="69"/>
+      <c r="I60" s="71"/>
       <c r="J60" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12">
       <c r="A61" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="86"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="35">
         <v>5</v>
       </c>
       <c r="D61" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="69"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="69"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="98"/>
+      <c r="I61" s="71"/>
       <c r="J61" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12">
       <c r="A62" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="86"/>
+      <c r="B62" s="88"/>
       <c r="C62" s="35">
         <v>5</v>
       </c>
       <c r="D62" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="69"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="69"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="98"/>
+      <c r="I62" s="71"/>
       <c r="J62" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="37.5">
       <c r="A63" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="86"/>
+      <c r="B63" s="88"/>
       <c r="C63" s="35">
         <v>5</v>
       </c>
       <c r="D63" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="69"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="69"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="71"/>
       <c r="J63" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12">
       <c r="A64" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="86"/>
+      <c r="B64" s="88"/>
       <c r="C64" s="35">
         <v>3</v>
       </c>
@@ -35046,11 +35052,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10">
       <c r="A65" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="86"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="35">
         <v>3</v>
       </c>
@@ -35076,11 +35082,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10">
       <c r="A66" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="86"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="35">
         <v>3</v>
       </c>
@@ -35106,11 +35112,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" ht="56.25">
       <c r="A67" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="86"/>
+      <c r="B67" s="88"/>
       <c r="C67" s="35">
         <v>3</v>
       </c>
@@ -35136,281 +35142,281 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" ht="93.75">
       <c r="A68" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="86"/>
+      <c r="B68" s="88"/>
       <c r="C68" s="35">
         <v>3</v>
       </c>
       <c r="D68" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E68" s="78" t="s">
+      <c r="E68" s="80" t="s">
         <v>28</v>
       </c>
       <c r="F68" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G68" s="78" t="s">
+      <c r="G68" s="80" t="s">
         <v>21</v>
       </c>
       <c r="H68" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="I68" s="78">
+      <c r="I68" s="80">
         <v>5</v>
       </c>
       <c r="J68" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10">
       <c r="A69" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="86"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="35">
         <v>3</v>
       </c>
       <c r="D69" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E69" s="79"/>
+      <c r="E69" s="81"/>
       <c r="F69" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="G69" s="79"/>
+      <c r="G69" s="81"/>
       <c r="H69" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="I69" s="79"/>
+      <c r="I69" s="81"/>
       <c r="J69" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" ht="37.5">
       <c r="A70" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="86"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="35">
         <v>3</v>
       </c>
       <c r="D70" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E70" s="79"/>
+      <c r="E70" s="81"/>
       <c r="F70" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G70" s="79"/>
+      <c r="G70" s="81"/>
       <c r="H70" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I70" s="79"/>
+      <c r="I70" s="81"/>
       <c r="J70" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10">
       <c r="A71" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="86"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="35">
         <v>3</v>
       </c>
       <c r="D71" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E71" s="79"/>
+      <c r="E71" s="81"/>
       <c r="F71" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="G71" s="79"/>
+      <c r="G71" s="81"/>
       <c r="H71" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="I71" s="79"/>
+      <c r="I71" s="81"/>
       <c r="J71" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" ht="37.5">
       <c r="A72" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="86"/>
+      <c r="B72" s="88"/>
       <c r="C72" s="35">
         <v>3</v>
       </c>
       <c r="D72" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="E72" s="79"/>
+      <c r="E72" s="81"/>
       <c r="F72" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="G72" s="79"/>
+      <c r="G72" s="81"/>
       <c r="H72" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I72" s="79"/>
+      <c r="I72" s="81"/>
       <c r="J72" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" ht="37.5">
       <c r="A73" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="86"/>
+      <c r="B73" s="88"/>
       <c r="C73" s="35">
         <v>3</v>
       </c>
       <c r="D73" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E73" s="79"/>
+      <c r="E73" s="81"/>
       <c r="F73" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="G73" s="79"/>
+      <c r="G73" s="81"/>
       <c r="H73" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="I73" s="79"/>
+      <c r="I73" s="81"/>
       <c r="J73" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" ht="37.5">
       <c r="A74" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="86"/>
+      <c r="B74" s="88"/>
       <c r="C74" s="35">
         <v>3</v>
       </c>
       <c r="D74" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E74" s="79"/>
+      <c r="E74" s="81"/>
       <c r="F74" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="G74" s="79"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I74" s="79"/>
+      <c r="I74" s="81"/>
       <c r="J74" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10">
       <c r="A75" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="86"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="35">
         <v>3</v>
       </c>
       <c r="D75" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="E75" s="79"/>
+      <c r="E75" s="81"/>
       <c r="F75" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="G75" s="79"/>
+      <c r="G75" s="81"/>
       <c r="H75" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="I75" s="79"/>
+      <c r="I75" s="81"/>
       <c r="J75" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" ht="37.5">
       <c r="A76" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="86"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="35">
         <v>3</v>
       </c>
       <c r="D76" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="E76" s="79"/>
+      <c r="E76" s="81"/>
       <c r="F76" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G76" s="79"/>
+      <c r="G76" s="81"/>
       <c r="H76" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="79"/>
+      <c r="I76" s="81"/>
       <c r="J76" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10">
       <c r="A77" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="86"/>
+      <c r="B77" s="88"/>
       <c r="C77" s="35">
         <v>3</v>
       </c>
       <c r="D77" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="79"/>
+      <c r="E77" s="81"/>
       <c r="F77" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="G77" s="79"/>
+      <c r="G77" s="81"/>
       <c r="H77" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="I77" s="79"/>
+      <c r="I77" s="81"/>
       <c r="J77" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" ht="37.5">
       <c r="A78" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="86"/>
+      <c r="B78" s="88"/>
       <c r="C78" s="35">
         <v>3</v>
       </c>
       <c r="D78" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="E78" s="80"/>
+      <c r="E78" s="82"/>
       <c r="F78" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="G78" s="80"/>
+      <c r="G78" s="82"/>
       <c r="H78" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="80"/>
+      <c r="I78" s="82"/>
       <c r="J78" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10">
       <c r="A79" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="86"/>
+      <c r="B79" s="88"/>
       <c r="C79" s="35">
         <v>3</v>
       </c>
@@ -35436,145 +35442,145 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" ht="93.75">
       <c r="A80" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B80" s="86"/>
+      <c r="B80" s="88"/>
       <c r="C80" s="35">
         <v>3</v>
       </c>
       <c r="D80" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E80" s="78" t="s">
+      <c r="E80" s="80" t="s">
         <v>28</v>
       </c>
       <c r="F80" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G80" s="78" t="s">
+      <c r="G80" s="80" t="s">
         <v>21</v>
       </c>
       <c r="H80" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I80" s="78">
+      <c r="I80" s="80">
         <v>5</v>
       </c>
       <c r="J80" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10">
       <c r="A81" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="86"/>
+      <c r="B81" s="88"/>
       <c r="C81" s="35">
         <v>3</v>
       </c>
       <c r="D81" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E81" s="79"/>
-      <c r="F81" s="90" t="s">
+      <c r="E81" s="81"/>
+      <c r="F81" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="G81" s="79"/>
-      <c r="H81" s="93" t="s">
+      <c r="G81" s="81"/>
+      <c r="H81" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="I81" s="79"/>
+      <c r="I81" s="81"/>
       <c r="J81" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10">
       <c r="A82" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B82" s="86"/>
+      <c r="B82" s="88"/>
       <c r="C82" s="35">
         <v>3</v>
       </c>
       <c r="D82" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E82" s="79"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="94"/>
-      <c r="I82" s="79"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="81"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="81"/>
       <c r="J82" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10">
       <c r="A83" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="86"/>
+      <c r="B83" s="88"/>
       <c r="C83" s="35">
         <v>3</v>
       </c>
       <c r="D83" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E83" s="79"/>
-      <c r="F83" s="91"/>
-      <c r="G83" s="79"/>
-      <c r="H83" s="94"/>
-      <c r="I83" s="79"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="96"/>
+      <c r="I83" s="81"/>
       <c r="J83" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10">
       <c r="A84" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="86"/>
+      <c r="B84" s="88"/>
       <c r="C84" s="35">
         <v>3</v>
       </c>
       <c r="D84" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E84" s="79"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="79"/>
-      <c r="H84" s="94"/>
-      <c r="I84" s="79"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="81"/>
+      <c r="H84" s="96"/>
+      <c r="I84" s="81"/>
       <c r="J84" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10">
       <c r="A85" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="86"/>
+      <c r="B85" s="88"/>
       <c r="C85" s="35">
         <v>3</v>
       </c>
       <c r="D85" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="80"/>
-      <c r="F85" s="92"/>
-      <c r="G85" s="80"/>
-      <c r="H85" s="95"/>
-      <c r="I85" s="80"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="82"/>
       <c r="J85" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10">
       <c r="A86" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="86"/>
+      <c r="B86" s="88"/>
       <c r="C86" s="35">
         <v>3</v>
       </c>
@@ -35600,11 +35606,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="150" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" ht="150">
       <c r="A87" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="87"/>
+      <c r="B87" s="89"/>
       <c r="C87" s="35">
         <v>3</v>
       </c>
@@ -35630,8 +35636,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="B88" s="81" t="s">
+    <row r="88" spans="1:10" ht="112.5">
+      <c r="B88" s="83" t="s">
         <v>137</v>
       </c>
       <c r="C88" s="22">
@@ -35659,8 +35665,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B89" s="81"/>
+    <row r="89" spans="1:10">
+      <c r="B89" s="83"/>
       <c r="C89" s="22">
         <v>3</v>
       </c>
@@ -35675,46 +35681,46 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B90" s="81"/>
+    <row r="90" spans="1:10">
+      <c r="B90" s="83"/>
       <c r="C90" s="22">
         <v>4</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E90" s="68" t="s">
+      <c r="E90" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F90" s="68" t="s">
+      <c r="F90" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="G90" s="68" t="s">
+      <c r="G90" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="H90" s="82" t="s">
+      <c r="H90" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="I90" s="68">
+      <c r="I90" s="70">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="81"/>
+    <row r="91" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B91" s="83"/>
       <c r="C91" s="22">
         <v>4</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E91" s="68"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="68"/>
-      <c r="H91" s="82"/>
-      <c r="I91" s="68"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="84"/>
+      <c r="I91" s="70"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B92" s="81"/>
+    <row r="92" spans="1:10">
+      <c r="B92" s="83"/>
       <c r="C92" s="22">
         <v>3</v>
       </c>
@@ -35729,60 +35735,60 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B93" s="81"/>
+    <row r="93" spans="1:10">
+      <c r="B93" s="83"/>
       <c r="C93" s="22">
         <v>4</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E93" s="68" t="s">
+      <c r="E93" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="72" t="s">
+      <c r="F93" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="G93" s="72" t="s">
+      <c r="G93" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="H93" s="82" t="s">
+      <c r="H93" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="I93" s="68">
+      <c r="I93" s="70">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B94" s="81"/>
+    <row r="94" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B94" s="83"/>
       <c r="C94" s="22">
         <v>4</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E94" s="68"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="72"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="68"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="84"/>
+      <c r="I94" s="70"/>
     </row>
-    <row r="95" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="81"/>
+    <row r="95" spans="1:10" ht="37.5" customHeight="1">
+      <c r="B95" s="83"/>
       <c r="C95" s="22">
         <v>4</v>
       </c>
       <c r="D95" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E95" s="68"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="82"/>
-      <c r="I95" s="68"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="74"/>
+      <c r="H95" s="84"/>
+      <c r="I95" s="70"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B96" s="81"/>
+    <row r="96" spans="1:10">
+      <c r="B96" s="83"/>
       <c r="C96" s="22">
         <v>3</v>
       </c>
@@ -35797,144 +35803,144 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B97" s="81"/>
+    <row r="97" spans="1:10">
+      <c r="B97" s="83"/>
       <c r="C97" s="22">
         <v>4</v>
       </c>
       <c r="D97" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E97" s="68" t="s">
+      <c r="E97" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F97" s="72" t="s">
+      <c r="F97" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="G97" s="72" t="s">
+      <c r="G97" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="H97" s="82" t="s">
+      <c r="H97" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="I97" s="68">
+      <c r="I97" s="70">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B98" s="81"/>
+    <row r="98" spans="1:10">
+      <c r="B98" s="83"/>
       <c r="C98" s="22">
         <v>4</v>
       </c>
       <c r="D98" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E98" s="68"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="72"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="68"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="84"/>
+      <c r="I98" s="70"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B99" s="81"/>
+    <row r="99" spans="1:10">
+      <c r="B99" s="83"/>
       <c r="C99" s="22">
         <v>4</v>
       </c>
       <c r="D99" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E99" s="68"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="82"/>
-      <c r="I99" s="68"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="74"/>
+      <c r="H99" s="84"/>
+      <c r="I99" s="70"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B100" s="81"/>
+    <row r="100" spans="1:10">
+      <c r="B100" s="83"/>
       <c r="C100" s="22">
         <v>4</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E100" s="68"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="82"/>
-      <c r="I100" s="68"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="74"/>
+      <c r="H100" s="84"/>
+      <c r="I100" s="70"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B101" s="81"/>
+    <row r="101" spans="1:10">
+      <c r="B101" s="83"/>
       <c r="C101" s="22">
         <v>4</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E101" s="68"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="82"/>
-      <c r="I101" s="68"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="74"/>
+      <c r="H101" s="84"/>
+      <c r="I101" s="70"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B102" s="81"/>
+    <row r="102" spans="1:10">
+      <c r="B102" s="83"/>
       <c r="C102" s="22">
         <v>4</v>
       </c>
       <c r="D102" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E102" s="68"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="82"/>
-      <c r="I102" s="68"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="84"/>
+      <c r="I102" s="70"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B103" s="81"/>
+    <row r="103" spans="1:10">
+      <c r="B103" s="83"/>
       <c r="C103" s="22">
         <v>4</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E103" s="68"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="72"/>
-      <c r="H103" s="82"/>
-      <c r="I103" s="68"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="84"/>
+      <c r="I103" s="70"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B104" s="81"/>
+    <row r="104" spans="1:10">
+      <c r="B104" s="83"/>
       <c r="C104" s="22">
         <v>4</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E104" s="68"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="72"/>
-      <c r="H104" s="82"/>
-      <c r="I104" s="68"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="84"/>
+      <c r="I104" s="70"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B105" s="81"/>
+    <row r="105" spans="1:10">
+      <c r="B105" s="83"/>
       <c r="C105" s="22">
         <v>4</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E105" s="68"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="72"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="68"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="84"/>
+      <c r="I105" s="70"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B106" s="81"/>
+    <row r="106" spans="1:10">
+      <c r="B106" s="83"/>
       <c r="C106" s="22">
         <v>3</v>
       </c>
@@ -35957,8 +35963,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B107" s="81"/>
+    <row r="107" spans="1:10" ht="37.5">
+      <c r="B107" s="83"/>
       <c r="C107" s="22">
         <v>3</v>
       </c>
@@ -35979,7 +35985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A108" s="58" t="s">
         <v>197</v>
       </c>
@@ -36007,7 +36013,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A109" s="58" t="s">
         <v>197</v>
       </c>
@@ -36037,7 +36043,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="52" customFormat="1" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" s="52" customFormat="1" ht="262.5">
       <c r="A110" s="58" t="s">
         <v>202</v>
       </c>
@@ -36059,7 +36065,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A111" s="58" t="s">
         <v>202</v>
       </c>
@@ -36089,7 +36095,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A112" s="58" t="s">
         <v>202</v>
       </c>
@@ -36119,7 +36125,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A113" s="58" t="s">
         <v>202</v>
       </c>
@@ -36149,7 +36155,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A114" s="58" t="s">
         <v>202</v>
       </c>
@@ -36179,7 +36185,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A115" s="58" t="s">
         <v>202</v>
       </c>
@@ -36209,7 +36215,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A116" s="58" t="s">
         <v>202</v>
       </c>
@@ -36239,7 +36245,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A117" s="58" t="s">
         <v>202</v>
       </c>
@@ -36269,7 +36275,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A118" s="58" t="s">
         <v>202</v>
       </c>
@@ -36299,7 +36305,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A119" s="58" t="s">
         <v>202</v>
       </c>
@@ -36329,7 +36335,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A120" s="58" t="s">
         <v>202</v>
       </c>
@@ -36359,7 +36365,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A121" s="58" t="s">
         <v>202</v>
       </c>
@@ -36389,7 +36395,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A122" s="58" t="s">
         <v>202</v>
       </c>
@@ -36419,7 +36425,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A123" s="58" t="s">
         <v>202</v>
       </c>
@@ -36449,7 +36455,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" s="52" customFormat="1" ht="37.5">
       <c r="A124" s="58" t="s">
         <v>202</v>
       </c>
@@ -36479,7 +36485,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10">
       <c r="B125" s="23"/>
       <c r="C125" s="20"/>
       <c r="D125" s="13"/>
@@ -36489,7 +36495,7 @@
       <c r="H125" s="24"/>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10">
       <c r="B126" s="23"/>
       <c r="C126" s="20"/>
       <c r="D126" s="13"/>
@@ -36499,7 +36505,7 @@
       <c r="H126" s="24"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10">
       <c r="B127" s="23"/>
       <c r="C127" s="20"/>
       <c r="D127" s="13"/>
@@ -36509,7 +36515,7 @@
       <c r="H127" s="24"/>
       <c r="I127" s="10"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10">
       <c r="B128" s="23"/>
       <c r="C128" s="20"/>
       <c r="D128" s="13"/>
@@ -36519,7 +36525,7 @@
       <c r="H128" s="24"/>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:9">
       <c r="B129" s="23"/>
       <c r="C129" s="20"/>
       <c r="D129" s="13"/>
@@ -36529,7 +36535,7 @@
       <c r="H129" s="24"/>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:9">
       <c r="B130" s="23"/>
       <c r="C130" s="20"/>
       <c r="D130" s="13"/>
@@ -36539,7 +36545,7 @@
       <c r="H130" s="24"/>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:9">
       <c r="B131" s="23"/>
       <c r="C131" s="20"/>
       <c r="D131" s="13"/>
@@ -36549,7 +36555,7 @@
       <c r="H131" s="24"/>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:9">
       <c r="B132" s="23"/>
       <c r="C132" s="20"/>
       <c r="D132" s="13"/>
@@ -36559,7 +36565,7 @@
       <c r="H132" s="24"/>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:9">
       <c r="B133" s="23"/>
       <c r="C133" s="20"/>
       <c r="D133" s="13"/>
@@ -36569,7 +36575,7 @@
       <c r="H133" s="24"/>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:9">
       <c r="B134" s="23"/>
       <c r="C134" s="20"/>
       <c r="D134" s="13"/>
@@ -36579,7 +36585,7 @@
       <c r="H134" s="24"/>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:9">
       <c r="B135" s="23"/>
       <c r="C135" s="20"/>
       <c r="D135" s="13"/>
@@ -36589,7 +36595,7 @@
       <c r="H135" s="24"/>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:9">
       <c r="B136" s="23"/>
       <c r="C136" s="20"/>
       <c r="D136" s="13"/>
@@ -36599,7 +36605,7 @@
       <c r="H136" s="24"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:9">
       <c r="B137" s="23"/>
       <c r="C137" s="20"/>
       <c r="D137" s="13"/>
@@ -36609,7 +36615,7 @@
       <c r="H137" s="24"/>
       <c r="I137" s="10"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:9">
       <c r="B138" s="23"/>
       <c r="C138" s="20"/>
       <c r="D138" s="13"/>
@@ -36619,7 +36625,7 @@
       <c r="H138" s="24"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:9">
       <c r="B139" s="23"/>
       <c r="C139" s="20"/>
       <c r="D139" s="13"/>
@@ -36629,7 +36635,7 @@
       <c r="H139" s="24"/>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:9">
       <c r="B140" s="23"/>
       <c r="C140" s="20"/>
       <c r="D140" s="13"/>
@@ -36639,7 +36645,7 @@
       <c r="H140" s="24"/>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:9">
       <c r="B141" s="23"/>
       <c r="C141" s="20"/>
       <c r="D141" s="13"/>
@@ -36649,7 +36655,7 @@
       <c r="H141" s="24"/>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:9">
       <c r="B142" s="23"/>
       <c r="C142" s="20"/>
       <c r="D142" s="13"/>
@@ -36659,7 +36665,7 @@
       <c r="H142" s="24"/>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:9">
       <c r="B143" s="23"/>
       <c r="C143" s="20"/>
       <c r="D143" s="13"/>
@@ -36669,7 +36675,7 @@
       <c r="H143" s="24"/>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:9">
       <c r="B144" s="23"/>
       <c r="C144" s="20"/>
       <c r="D144" s="13"/>
@@ -36679,7 +36685,7 @@
       <c r="H144" s="24"/>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:9">
       <c r="B145" s="23"/>
       <c r="C145" s="20"/>
       <c r="D145" s="13"/>
@@ -36689,7 +36695,7 @@
       <c r="H145" s="24"/>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:9">
       <c r="B146" s="23"/>
       <c r="C146" s="20"/>
       <c r="D146" s="13"/>
@@ -36803,7 +36809,7 @@
       <selection activeCell="V88" sqref="V88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.45" customHeight="1"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36813,57 +36819,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D25C34B-F685-47D6-9813-5BE32CD2CFAC}">
-  <dimension ref="B1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D1D576-7683-48CE-B032-65448E891EC4}">
+  <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="3.125" style="99"/>
-    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C1" s="98" t="s">
-        <v>217</v>
+    <row r="1" spans="2:2">
+      <c r="B1" s="68" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -36873,28 +36850,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D1D576-7683-48CE-B032-65448E891EC4}">
-  <dimension ref="B1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44AC142-CD6A-4099-BB27-BDAF5FD0912D}">
+  <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B1" s="98" t="s">
-        <v>215</v>
+    <row r="1" spans="2:3">
+      <c r="B1" s="68" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" s="98" t="s">
-        <v>225</v>
+    <row r="3" spans="2:3">
+      <c r="B3" s="68" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -36904,37 +36892,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44AC142-CD6A-4099-BB27-BDAF5FD0912D}">
-  <dimension ref="B1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B1" s="98" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" s="98" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC010FF9-DF89-49E9-B28B-FFDBECA79FDE}">
   <dimension ref="B1"/>
   <sheetViews>
@@ -36942,11 +36899,33 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B1" s="98" t="s">
-        <v>228</v>
+    <row r="1" spans="2:2">
+      <c r="B1" s="68" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CFCD2E-61DC-4729-98DF-0847A123D2F1}">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="68" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -36957,23 +36936,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CFCD2E-61DC-4729-98DF-0847A123D2F1}">
-  <dimension ref="B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1BE28B-D4DD-43D7-9F6F-D56E7B943947}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B1" s="98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>